--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525527.8977447192</v>
+        <v>565870.2796752304</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889764</v>
+        <v>337002.2430554234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8442333.793387052</v>
+        <v>8424682.894232525</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>232.3303155802432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,13 +794,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>88.91888512441757</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.91690033700354</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1029,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>231.863583504628</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>60.09118670082915</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>14.00532741974514</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>104.5113366705975</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>49.85747932458928</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1497,13 +1499,13 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888678</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1579,10 +1581,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7028979134394</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>269.8854510154497</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>7.058423000548196</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>159.5874687115985</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1977,7 +1979,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>83.74296752957667</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>109.4643709805615</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56.8819698781575</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>163.2973078292011</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>138.9152241012131</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2488,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.6860793789968</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>213.6113417665672</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>184.5808806410313</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>144.2406440115529</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>125.8721928563317</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>43.63030091584125</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>236.5646427200822</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>114.1178110212559</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -3004,7 +3006,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>54.47555601903363</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.058423000547998</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>38.09428873746651</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>162.336490673523</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>94.65568569260671</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>28.92900240760912</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>134.257450437519</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.22084658737597</v>
+        <v>48.9769967570045</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>38.5654958977301</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>105.2581407114543</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250819</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>66.36466614595577</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>127.6114349298492</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>81.1220065286376</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>342.196593030168</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3831,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>268.8725363918118</v>
       </c>
       <c r="V43" t="n">
-        <v>99.53145434773525</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,16 +3979,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>278.9270494795691</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>1.998219257060982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.8721928563316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>499.3853800778592</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>499.3853800778592</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X2" t="n">
-        <v>255.9366034337592</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.9366034337592</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>498.6361606388412</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>263.4840524070985</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>284.5332603973924</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.77296163243852</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.9604071117561</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C8" t="n">
-        <v>286.9604071117561</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117561</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E8" t="n">
-        <v>21.05936271613333</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613333</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>818.7624959030018</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X8" t="n">
-        <v>818.7624959030018</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y8" t="n">
-        <v>552.8614515073789</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4436130950688</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C9" t="n">
-        <v>194.4436130950688</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D9" t="n">
-        <v>194.4436130950688</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>35.20615808961327</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>394.933760794076</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>531.9454581020244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141743</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806666</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>824.7478070488712</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>824.7478070488712</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>570.5104503206696</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>362.6589501151368</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.6589501151368</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>945.5895825788796</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="C11" t="n">
-        <v>945.5895825788796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D11" t="n">
-        <v>945.5895825788796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E11" t="n">
-        <v>945.5895825788796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T11" t="n">
-        <v>2646.788000791365</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2393.026215429456</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2061.963328085885</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.194672815771</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X11" t="n">
-        <v>1335.728914554691</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y11" t="n">
-        <v>945.5895825788796</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5145,10 +5147,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273827</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1198.223260609829</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C14" t="n">
-        <v>829.2607436694175</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D14" t="n">
-        <v>829.2607436694175</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>443.4724910711732</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>443.4724910711732</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>443.4724910711732</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
@@ -5276,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W14" t="n">
-        <v>1958.288858935031</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X14" t="n">
-        <v>1584.823100673951</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y14" t="n">
-        <v>1584.823100673951</v>
+        <v>2520.971603332393</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5348,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,22 +5357,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U16" t="n">
-        <v>455.5174175241617</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2090.781606227855</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C17" t="n">
-        <v>1721.819089287443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.019370815648</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2513.841883129819</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2295.207216101881</v>
       </c>
       <c r="U17" t="n">
-        <v>2480.920938203667</v>
+        <v>2041.445430739973</v>
       </c>
       <c r="V17" t="n">
-        <v>2480.920938203667</v>
+        <v>1710.382543396402</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.920938203667</v>
+        <v>1357.613888126288</v>
       </c>
       <c r="X17" t="n">
-        <v>2480.920938203667</v>
+        <v>984.1481298652084</v>
       </c>
       <c r="Y17" t="n">
-        <v>2090.781606227855</v>
+        <v>594.0087978893966</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5628,7 +5630,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5701,16 +5703,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1406.118858921978</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C20" t="n">
-        <v>1037.156341981567</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D20" t="n">
-        <v>1037.156341981567</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="E20" t="n">
-        <v>1037.156341981567</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>164.5130535179014</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>164.5130535179014</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>164.5130535179014</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V20" t="n">
-        <v>2169.72394915887</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W20" t="n">
-        <v>2169.72394915887</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X20" t="n">
-        <v>1796.25819089779</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y20" t="n">
-        <v>1406.118858921978</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="21">
@@ -5841,19 +5843,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2080.419623862615</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C22" t="n">
-        <v>2080.419623862615</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D22" t="n">
-        <v>2080.419623862615</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E22" t="n">
-        <v>2080.419623862615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2080.419623862615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>2482.860667836385</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y22" t="n">
-        <v>2262.068088692855</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1666.64813361638</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C23" t="n">
-        <v>1297.685616675969</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="D23" t="n">
-        <v>939.4199180692183</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="E23" t="n">
-        <v>939.4199180692183</v>
+        <v>218.8897574054161</v>
       </c>
       <c r="F23" t="n">
-        <v>939.4199180692183</v>
+        <v>218.8897574054161</v>
       </c>
       <c r="G23" t="n">
-        <v>521.4561099674052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>194.261390003408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6014,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2443.387305656314</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>2443.387305656314</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X23" t="n">
-        <v>2443.387305656314</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y23" t="n">
-        <v>2053.247973680502</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6087,22 +6089,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036445</v>
@@ -6175,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>500.820796875036</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V25" t="n">
-        <v>500.820796875036</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.4036268380754</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.9054987607761</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C26" t="n">
-        <v>53.94298182036445</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036445</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6230,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.703757037383</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1925.879084331904</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W26" t="n">
-        <v>1573.11042906179</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X26" t="n">
-        <v>1199.64467080071</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y26" t="n">
-        <v>809.505338824898</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6303,16 +6305,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>500.1394333084169</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C28" t="n">
-        <v>331.20325038051</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D28" t="n">
-        <v>181.0866109681743</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E28" t="n">
-        <v>181.0866109681743</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F28" t="n">
-        <v>181.0866109681743</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G28" t="n">
-        <v>181.0866109681743</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>181.0866109681743</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6403,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084169</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="Y28" t="n">
-        <v>500.1394333084169</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1031.077791139709</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="C29" t="n">
-        <v>1031.077791139709</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D29" t="n">
-        <v>1031.077791139709</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E29" t="n">
-        <v>1031.077791139709</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F29" t="n">
-        <v>620.0918863501013</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
         <v>381.1377017843616</v>
@@ -6461,7 +6463,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
@@ -6491,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2581.878574835136</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990285</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="V29" t="n">
-        <v>2147.451536646714</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="W29" t="n">
-        <v>1794.6828813766</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="X29" t="n">
-        <v>1421.217123115521</v>
+        <v>1954.651031212147</v>
       </c>
       <c r="Y29" t="n">
-        <v>1031.077791139709</v>
+        <v>1564.511699236335</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6540,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124028</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T31" t="n">
-        <v>108.9687959810045</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.5386780278486</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C32" t="n">
-        <v>207.4089578252748</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D32" t="n">
-        <v>207.4089578252748</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2658.670011485428</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2658.670011485428</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2658.670011485428</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2658.670011485428</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X32" t="n">
-        <v>991.2778500677821</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y32" t="n">
-        <v>601.1385180919704</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6816,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>318.4909684781771</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>149.5547855502702</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>500.1394333084169</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.1394333084169</v>
+        <v>2186.939341837732</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>882.8926947117852</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C35" t="n">
-        <v>882.8926947117852</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2330.329327562361</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2330.329327562361</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1999.266440218791</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>1646.497784948677</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X35" t="n">
-        <v>1273.032026687597</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y35" t="n">
-        <v>882.8926947117852</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="36">
@@ -6996,10 +6998,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
@@ -7008,7 +7010,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7017,10 +7019,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.25696827225937</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>63.25696827225937</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>63.25696827225937</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E37" t="n">
-        <v>63.25696827225937</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F37" t="n">
-        <v>63.25696827225937</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7117,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>63.25696827225937</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>63.25696827225937</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.25696827225937</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1328.309493689271</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>959.3469767488598</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>959.3469767488598</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>573.5587241506155</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V38" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W38" t="n">
-        <v>2317.164380266784</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X38" t="n">
-        <v>1943.698622005704</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y38" t="n">
-        <v>1553.559290029893</v>
+        <v>1714.909333753393</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="G40" t="n">
         <v>190.2718927217162</v>
@@ -7327,10 +7329,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7357,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>599.2285448833542</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>371.9203575519559</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>371.9203575519559</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>371.9203575519559</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>371.9203575519559</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y40" t="n">
-        <v>371.9203575519559</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>135.884402556362</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>135.884402556362</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W41" t="n">
-        <v>2289.351746278601</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="42">
@@ -7470,10 +7472,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961342</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C43" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D43" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7591,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>290.8087152951862</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V43" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W43" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.6874762441716</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C44" t="n">
-        <v>53.94298182036445</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D44" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
         <v>53.94298182036445</v>
@@ -7649,16 +7651,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X44" t="n">
-        <v>1112.426648284105</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y44" t="n">
-        <v>722.2873163082934</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
         <v>665.1105362747051</v>
@@ -7737,31 +7739,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.9958041606071</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0596212327002</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7810,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.1394333084169</v>
+        <v>279.346854164887</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>267.9873942041307</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808119</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8769,7 +8771,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148.4449359431696</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,10 +22558,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>174.5457301614682</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22601,7 +22603,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22680,13 +22682,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22784,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22860,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.6162833128638</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22917,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>117.377385212785</v>
+        <v>118.3664731213304</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>87.3538788638096</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>131.0638849736387</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>63.45830508392231</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004101</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>166.5908410330685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23391,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23431,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555249</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>338.7761146022503</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>90.21987485091773</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23552,13 +23554,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>16.39642322652799</v>
+        <v>277.0062774114808</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>47.41997957426351</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>91.63669879669078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,19 +23943,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>323.1330782121348</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>42.46694526429971</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24133,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1161092074294</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>110.4278323808934</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>250.4868621915939</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>13.01609214364814</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>24.27954241334147</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24415,10 +24417,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>72.67053247541057</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>31.86743971662654</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.9972946445007</v>
       </c>
     </row>
     <row r="27">
@@ -24601,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.093428936006561</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5152380341777</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>177.2195273007128</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>102.3305093364019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.8063182229441</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>358.2144687704596</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>16.38411383734521</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>17.49548950841429</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>53.95978732560565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>294.993770356748</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>82.19086992013877</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>158.0889556716749</v>
+        <v>118.3328055020464</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923383</v>
@@ -25357,13 +25359,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>368.3105498439813</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>243.9828280059587</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>100.9451361130951</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25597,13 +25599,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>84.53410402016968</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25645,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>242.8007662357195</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,13 +25687,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>27.53450764830103</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853701</v>
@@ -25831,7 +25833,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,10 +25842,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>17.40933785016591</v>
       </c>
       <c r="V43" t="n">
-        <v>152.6061889760928</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>86.34584229143849</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>52.48018331775071</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.95978732560566</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199109</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>501254.8875917585</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26326,7 +26328,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
@@ -26335,16 +26337,16 @@
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133941</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42100.10620798598</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="F4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
         <v>44802.65617556861</v>
@@ -26451,7 +26453,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29831.55399957296</v>
+        <v>-29831.55399957306</v>
       </c>
       <c r="C6" t="n">
-        <v>50937.87753197471</v>
+        <v>50937.87753197473</v>
       </c>
       <c r="D6" t="n">
-        <v>28491.02680976568</v>
+        <v>50937.8775319747</v>
       </c>
       <c r="E6" t="n">
-        <v>-255974.8534091585</v>
+        <v>-281100.5897685802</v>
       </c>
       <c r="F6" t="n">
         <v>151745.5842744158</v>
       </c>
       <c r="G6" t="n">
-        <v>151745.5842744159</v>
+        <v>151745.5842744157</v>
       </c>
       <c r="H6" t="n">
         <v>151745.5842744158</v>
@@ -26543,25 +26545,25 @@
         <v>151745.5842744159</v>
       </c>
       <c r="J6" t="n">
-        <v>88685.64167530957</v>
+        <v>88685.64167530953</v>
       </c>
       <c r="K6" t="n">
+        <v>151745.5842744159</v>
+      </c>
+      <c r="L6" t="n">
         <v>151745.5842744158</v>
       </c>
-      <c r="L6" t="n">
-        <v>146119.9420458901</v>
-      </c>
       <c r="M6" t="n">
-        <v>49311.46658378061</v>
+        <v>43772.2236003579</v>
       </c>
       <c r="N6" t="n">
+        <v>151745.5842744158</v>
+      </c>
+      <c r="O6" t="n">
         <v>151745.5842744159</v>
       </c>
-      <c r="O6" t="n">
-        <v>151745.5842744158</v>
-      </c>
       <c r="P6" t="n">
-        <v>151745.5842744158</v>
+        <v>151745.5842744159</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26825,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34357,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>138.3956538464126</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245897</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35975,7 +35977,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36449,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,19 +36919,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37385,13 +37387,13 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
